--- a/OTA VCAの構成.xlsx
+++ b/OTA VCAの構成.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Wave</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>+5Vp-p (DAC出力)</t>
     <rPh sb="11" eb="13">
@@ -36,14 +32,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2017.08.13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Env</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>+3.3Vp-p</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -80,6 +68,22 @@
   </si>
   <si>
     <t>VCA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Env In</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wave Out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+/-1Vp-p ～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2017.08.14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -416,7 +420,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -769,7 +773,7 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -793,15 +797,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -810,7 +814,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8601075" y="800099"/>
+          <a:off x="8601076" y="3400425"/>
           <a:ext cx="1200149" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -850,34 +854,80 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="68" name="Straight Arrow Connector 67"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="66" idx="1"/>
-          <a:endCxn id="15" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6800850" y="1200149"/>
-          <a:ext cx="1800225" cy="1"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7200900" y="3800473"/>
+          <a:ext cx="1400177" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6800850" y="1200150"/>
+          <a:ext cx="1800225" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -1186,74 +1236,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AL21"/>
+  <dimension ref="B2:AN21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="2:38" ht="15.75" customHeight="1">
+    <row r="2" spans="2:40" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:40" ht="15.75" customHeight="1">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40" ht="15.75" customHeight="1">
+      <c r="AC4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40" ht="15.75" customHeight="1">
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+    </row>
+    <row r="7" spans="2:40" ht="15.75" customHeight="1">
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40" ht="15.75" customHeight="1">
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40" ht="15.75" customHeight="1">
+      <c r="I9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="9:38" ht="15.75" customHeight="1">
+      <c r="I19" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="AL19" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="2:38" ht="15.75" customHeight="1">
-      <c r="B3" t="s">
+    <row r="20" spans="9:38" ht="15.75" customHeight="1">
+      <c r="I20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="9:38" ht="15.75" customHeight="1">
+      <c r="I21" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:38" ht="15.75" customHeight="1">
-      <c r="AC4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:38" ht="15.75" customHeight="1">
-      <c r="I6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:38" ht="15.75" customHeight="1">
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:38" ht="15.75" customHeight="1">
-      <c r="I8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:38" ht="15.75" customHeight="1">
-      <c r="I9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9" ht="15.75" customHeight="1">
-      <c r="I19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" ht="15.75" customHeight="1">
-      <c r="I20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9" ht="15.75" customHeight="1">
-      <c r="I21" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/OTA VCAの構成.xlsx
+++ b/OTA VCAの構成.xlsx
@@ -162,14 +162,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -180,8 +180,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800475" y="600074"/>
-          <a:ext cx="3429000" cy="3600451"/>
+          <a:off x="3800474" y="600074"/>
+          <a:ext cx="4200525" cy="3600451"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -273,63 +273,6 @@
             <a:t>VCO</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5600700" y="800099"/>
-          <a:ext cx="1200150" cy="800101"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>NJM13600</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -796,14 +739,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -814,7 +757,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8601076" y="3400425"/>
+          <a:off x="9401175" y="3400425"/>
           <a:ext cx="1200149" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -854,26 +797,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>200023</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="68" name="Straight Arrow Connector 67"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7200900" y="3800473"/>
-          <a:ext cx="1400177" cy="1"/>
+        <a:xfrm flipH="1">
+          <a:off x="8000999" y="3800475"/>
+          <a:ext cx="1400176" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -901,13 +846,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -915,14 +860,12 @@
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="15" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6800850" y="1200150"/>
-          <a:ext cx="1800225" cy="0"/>
+          <a:off x="7800975" y="1200150"/>
+          <a:ext cx="1600200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -946,6 +889,130 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Pentagon 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="800098"/>
+          <a:ext cx="800100" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>AC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Coupling</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Pentagon 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600699" y="800098"/>
+          <a:ext cx="1400176" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NJM13600</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1236,20 +1303,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:AN21"/>
+  <dimension ref="B2:AP21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:BB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="2:40" ht="15.75" customHeight="1">
+    <row r="2" spans="2:42" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:40" ht="15.75" customHeight="1">
+    <row r="3" spans="2:42" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1257,35 +1324,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:40" ht="15.75" customHeight="1">
+    <row r="4" spans="2:42" ht="15.75" customHeight="1">
       <c r="AC4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:40" ht="15.75" customHeight="1">
+    <row r="6" spans="2:42" ht="15.75" customHeight="1">
       <c r="I6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AL6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
+      <c r="AP6" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="2:40" ht="15.75" customHeight="1">
+    <row r="7" spans="2:42" ht="15.75" customHeight="1">
       <c r="I7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AL7" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:40" ht="15.75" customHeight="1">
+    <row r="8" spans="2:42" ht="15.75" customHeight="1">
       <c r="I8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:40" ht="15.75" customHeight="1">
+    <row r="9" spans="2:42" ht="15.75" customHeight="1">
       <c r="I9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1293,23 +1360,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="9:38" ht="15.75" customHeight="1">
+    <row r="19" spans="9:42" ht="15.75" customHeight="1">
       <c r="I19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AL19" s="2" t="s">
+      <c r="AP19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="9:38" ht="15.75" customHeight="1">
+    <row r="20" spans="9:42" ht="15.75" customHeight="1">
       <c r="I20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AL20" s="1" t="s">
+      <c r="AP20" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="9:38" ht="15.75" customHeight="1">
+    <row r="21" spans="9:42" ht="15.75" customHeight="1">
       <c r="I21" s="1" t="s">
         <v>3</v>
       </c>
